--- a/INTLINE/data/142/STANOR/09672 Current and capital account (Imports).xlsx
+++ b/INTLINE/data/142/STANOR/09672 Current and capital account (Imports).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <x:si>
     <x:t>09672: Current and capital account. Current prices (NOK million), by contents, item and quarter</x:t>
   </x:si>
@@ -511,6 +511,9 @@
     <x:t>2021K4</x:t>
   </x:si>
   <x:si>
+    <x:t>2022K1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Current and capital account</x:t>
   </x:si>
   <x:si>
@@ -610,7 +613,7 @@
     <x:t>Current and capital account:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220302 08:00</x:t>
+    <x:t>20220601 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1053,21 +1056,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FJ75"/>
+  <x:dimension ref="A1:FK75"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="166" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="167" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:166">
+    <x:row r="1" spans="1:167">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:166">
+    <x:row r="3" spans="1:167">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1560,13 +1563,16 @@
       <x:c r="FJ3" s="2" t="s">
         <x:v>164</x:v>
       </x:c>
+      <x:c r="FK3" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:166">
+    <x:row r="4" spans="1:167">
       <x:c r="A4" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>30496</x:v>
@@ -2049,21 +2055,24 @@
         <x:v>293894</x:v>
       </x:c>
       <x:c r="FG4" s="3" t="n">
-        <x:v>264906</x:v>
+        <x:v>264851</x:v>
       </x:c>
       <x:c r="FH4" s="3" t="n">
-        <x:v>292035</x:v>
+        <x:v>293233</x:v>
       </x:c>
       <x:c r="FI4" s="3" t="n">
-        <x:v>312361</x:v>
+        <x:v>315334</x:v>
       </x:c>
       <x:c r="FJ4" s="3" t="n">
-        <x:v>337151</x:v>
+        <x:v>340783</x:v>
+      </x:c>
+      <x:c r="FK4" s="3" t="n">
+        <x:v>333920</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:166">
+    <x:row r="5" spans="1:167">
       <x:c r="B5" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>23368</x:v>
@@ -2557,10 +2566,13 @@
       <x:c r="FJ5" s="3" t="n">
         <x:v>236952</x:v>
       </x:c>
+      <x:c r="FK5" s="3" t="n">
+        <x:v>237628</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:166">
+    <x:row r="6" spans="1:167">
       <x:c r="B6" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>1066</x:v>
@@ -3054,10 +3066,13 @@
       <x:c r="FJ6" s="3" t="n">
         <x:v>1850</x:v>
       </x:c>
+      <x:c r="FK6" s="3" t="n">
+        <x:v>2139</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:166">
+    <x:row r="7" spans="1:167">
       <x:c r="B7" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>529</x:v>
@@ -3551,10 +3566,13 @@
       <x:c r="FJ7" s="3" t="n">
         <x:v>1863</x:v>
       </x:c>
+      <x:c r="FK7" s="3" t="n">
+        <x:v>1985</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:166">
+    <x:row r="8" spans="1:167">
       <x:c r="B8" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>21773</x:v>
@@ -4048,10 +4066,13 @@
       <x:c r="FJ8" s="3" t="n">
         <x:v>233239</x:v>
       </x:c>
+      <x:c r="FK8" s="3" t="n">
+        <x:v>233504</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:166">
+    <x:row r="9" spans="1:167">
       <x:c r="B9" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>23368</x:v>
@@ -4545,10 +4566,13 @@
       <x:c r="FJ9" s="3" t="n">
         <x:v>228037</x:v>
       </x:c>
+      <x:c r="FK9" s="3" t="n">
+        <x:v>227535</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:166">
+    <x:row r="10" spans="1:167">
       <x:c r="B10" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>7128</x:v>
@@ -5031,21 +5055,24 @@
         <x:v>80843</x:v>
       </x:c>
       <x:c r="FG10" s="3" t="n">
-        <x:v>67085</x:v>
+        <x:v>67030</x:v>
       </x:c>
       <x:c r="FH10" s="3" t="n">
-        <x:v>70789</x:v>
+        <x:v>71987</x:v>
       </x:c>
       <x:c r="FI10" s="3" t="n">
-        <x:v>85136</x:v>
+        <x:v>88109</x:v>
       </x:c>
       <x:c r="FJ10" s="3" t="n">
-        <x:v>100199</x:v>
+        <x:v>103831</x:v>
+      </x:c>
+      <x:c r="FK10" s="3" t="n">
+        <x:v>96292</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:166">
+    <x:row r="11" spans="1:167">
       <x:c r="B11" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>2594</x:v>
@@ -5531,18 +5558,21 @@
         <x:v>10585</x:v>
       </x:c>
       <x:c r="FH11" s="3" t="n">
-        <x:v>12500</x:v>
+        <x:v>13300</x:v>
       </x:c>
       <x:c r="FI11" s="3" t="n">
-        <x:v>14500</x:v>
+        <x:v>16200</x:v>
       </x:c>
       <x:c r="FJ11" s="3" t="n">
-        <x:v>16500</x:v>
+        <x:v>18500</x:v>
+      </x:c>
+      <x:c r="FK11" s="3" t="n">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:166">
+    <x:row r="12" spans="1:167">
       <x:c r="B12" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>630</x:v>
@@ -6025,21 +6055,24 @@
         <x:v>7287</x:v>
       </x:c>
       <x:c r="FG12" s="3" t="n">
-        <x:v>5044</x:v>
+        <x:v>4758</x:v>
       </x:c>
       <x:c r="FH12" s="3" t="n">
-        <x:v>5369</x:v>
+        <x:v>5264</x:v>
       </x:c>
       <x:c r="FI12" s="3" t="n">
-        <x:v>6419</x:v>
+        <x:v>6307</x:v>
       </x:c>
       <x:c r="FJ12" s="3" t="n">
-        <x:v>7288</x:v>
+        <x:v>7154</x:v>
+      </x:c>
+      <x:c r="FK12" s="3" t="n">
+        <x:v>6497</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:166">
+    <x:row r="13" spans="1:167">
       <x:c r="B13" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>1222</x:v>
@@ -6531,12 +6564,15 @@
         <x:v>11674</x:v>
       </x:c>
       <x:c r="FJ13" s="3" t="n">
-        <x:v>16285</x:v>
+        <x:v>16204</x:v>
+      </x:c>
+      <x:c r="FK13" s="3" t="n">
+        <x:v>15238</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:166">
+    <x:row r="14" spans="1:167">
       <x:c r="B14" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>146</x:v>
@@ -7022,18 +7058,21 @@
         <x:v>3789</x:v>
       </x:c>
       <x:c r="FH14" s="3" t="n">
-        <x:v>4043</x:v>
+        <x:v>4045</x:v>
       </x:c>
       <x:c r="FI14" s="3" t="n">
-        <x:v>5030</x:v>
+        <x:v>5645</x:v>
       </x:c>
       <x:c r="FJ14" s="3" t="n">
-        <x:v>5929</x:v>
+        <x:v>6147</x:v>
+      </x:c>
+      <x:c r="FK14" s="3" t="n">
+        <x:v>6095</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:166">
+    <x:row r="15" spans="1:167">
       <x:c r="B15" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>32</x:v>
@@ -7527,10 +7566,13 @@
       <x:c r="FJ15" s="3" t="n">
         <x:v>18</x:v>
       </x:c>
+      <x:c r="FK15" s="3" t="n">
+        <x:v>19</x:v>
+      </x:c>
     </x:row>
-    <x:row r="16" spans="1:166">
+    <x:row r="16" spans="1:167">
       <x:c r="B16" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>0</x:v>
@@ -8024,10 +8066,13 @@
       <x:c r="FJ16" s="3" t="n">
         <x:v>286</x:v>
       </x:c>
+      <x:c r="FK16" s="3" t="n">
+        <x:v>286</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:166">
+    <x:row r="17" spans="1:167">
       <x:c r="B17" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>74</x:v>
@@ -8516,15 +8561,18 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="FI17" s="3" t="n">
-        <x:v>596</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="FJ17" s="3" t="n">
-        <x:v>1259</x:v>
+        <x:v>1483</x:v>
+      </x:c>
+      <x:c r="FK17" s="3" t="n">
+        <x:v>1597</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:166">
+    <x:row r="18" spans="1:167">
       <x:c r="B18" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>32</x:v>
@@ -9010,18 +9058,21 @@
         <x:v>3153</x:v>
       </x:c>
       <x:c r="FH18" s="3" t="n">
-        <x:v>3290</x:v>
+        <x:v>3292</x:v>
       </x:c>
       <x:c r="FI18" s="3" t="n">
-        <x:v>3902</x:v>
+        <x:v>3920</x:v>
       </x:c>
       <x:c r="FJ18" s="3" t="n">
-        <x:v>4081</x:v>
+        <x:v>4072</x:v>
+      </x:c>
+      <x:c r="FK18" s="3" t="n">
+        <x:v>3925</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:166">
+    <x:row r="19" spans="1:167">
       <x:c r="B19" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>7</x:v>
@@ -9513,12 +9564,15 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="FJ19" s="3" t="n">
-        <x:v>285</x:v>
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="FK19" s="3" t="n">
+        <x:v>268</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:166">
+    <x:row r="20" spans="1:167">
       <x:c r="B20" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>661</x:v>
@@ -10001,21 +10055,24 @@
         <x:v>26068</x:v>
       </x:c>
       <x:c r="FG20" s="3" t="n">
-        <x:v>22077</x:v>
+        <x:v>22095</x:v>
       </x:c>
       <x:c r="FH20" s="3" t="n">
-        <x:v>22661</x:v>
+        <x:v>22945</x:v>
       </x:c>
       <x:c r="FI20" s="3" t="n">
-        <x:v>22025</x:v>
+        <x:v>22576</x:v>
       </x:c>
       <x:c r="FJ20" s="3" t="n">
-        <x:v>25235</x:v>
+        <x:v>26340</x:v>
+      </x:c>
+      <x:c r="FK20" s="3" t="n">
+        <x:v>23579</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:166">
+    <x:row r="21" spans="1:167">
       <x:c r="B21" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>312</x:v>
@@ -10498,21 +10555,24 @@
         <x:v>5629</x:v>
       </x:c>
       <x:c r="FG21" s="3" t="n">
-        <x:v>6537</x:v>
+        <x:v>6562</x:v>
       </x:c>
       <x:c r="FH21" s="3" t="n">
-        <x:v>5590</x:v>
+        <x:v>5617</x:v>
       </x:c>
       <x:c r="FI21" s="3" t="n">
-        <x:v>5433</x:v>
+        <x:v>5460</x:v>
       </x:c>
       <x:c r="FJ21" s="3" t="n">
-        <x:v>5577</x:v>
+        <x:v>5697</x:v>
+      </x:c>
+      <x:c r="FK21" s="3" t="n">
+        <x:v>6479</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:166">
+    <x:row r="22" spans="1:167">
       <x:c r="B22" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C22" s="3" t="n">
         <x:v>10</x:v>
@@ -10995,21 +11055,24 @@
         <x:v>4413</x:v>
       </x:c>
       <x:c r="FG22" s="3" t="n">
-        <x:v>3668</x:v>
+        <x:v>3669</x:v>
       </x:c>
       <x:c r="FH22" s="3" t="n">
-        <x:v>4177</x:v>
+        <x:v>4150</x:v>
       </x:c>
       <x:c r="FI22" s="3" t="n">
-        <x:v>3550</x:v>
+        <x:v>3522</x:v>
       </x:c>
       <x:c r="FJ22" s="3" t="n">
-        <x:v>4474</x:v>
+        <x:v>4493</x:v>
+      </x:c>
+      <x:c r="FK22" s="3" t="n">
+        <x:v>3583</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:166">
+    <x:row r="23" spans="1:167">
       <x:c r="B23" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C23" s="3" t="n">
         <x:v>31</x:v>
@@ -11492,21 +11555,24 @@
         <x:v>1991</x:v>
       </x:c>
       <x:c r="FG23" s="3" t="n">
-        <x:v>1004</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="FH23" s="3" t="n">
-        <x:v>1083</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="FI23" s="3" t="n">
-        <x:v>1043</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="FJ23" s="3" t="n">
-        <x:v>1151</x:v>
+        <x:v>1159</x:v>
+      </x:c>
+      <x:c r="FK23" s="3" t="n">
+        <x:v>1216</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:166">
+    <x:row r="24" spans="1:167">
       <x:c r="B24" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C24" s="3" t="n">
         <x:v>308</x:v>
@@ -11989,21 +12055,24 @@
         <x:v>14035</x:v>
       </x:c>
       <x:c r="FG24" s="3" t="n">
-        <x:v>10868</x:v>
+        <x:v>10869</x:v>
       </x:c>
       <x:c r="FH24" s="3" t="n">
-        <x:v>11811</x:v>
+        <x:v>12094</x:v>
       </x:c>
       <x:c r="FI24" s="3" t="n">
-        <x:v>11999</x:v>
+        <x:v>12550</x:v>
       </x:c>
       <x:c r="FJ24" s="3" t="n">
-        <x:v>14033</x:v>
+        <x:v>14991</x:v>
+      </x:c>
+      <x:c r="FK24" s="3" t="n">
+        <x:v>12301</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:166">
+    <x:row r="25" spans="1:167">
       <x:c r="B25" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C25" s="3" t="n">
         <x:v>1875</x:v>
@@ -12486,21 +12555,24 @@
         <x:v>28346</x:v>
       </x:c>
       <x:c r="FG25" s="3" t="n">
-        <x:v>24147</x:v>
+        <x:v>24360</x:v>
       </x:c>
       <x:c r="FH25" s="3" t="n">
-        <x:v>24379</x:v>
+        <x:v>24596</x:v>
       </x:c>
       <x:c r="FI25" s="3" t="n">
-        <x:v>25488</x:v>
+        <x:v>25707</x:v>
       </x:c>
       <x:c r="FJ25" s="3" t="n">
-        <x:v>28962</x:v>
+        <x:v>29486</x:v>
+      </x:c>
+      <x:c r="FK25" s="3" t="n">
+        <x:v>29884</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:166">
+    <x:row r="26" spans="1:167">
       <x:c r="B26" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C26" s="3" t="n">
         <x:v>742</x:v>
@@ -12983,21 +13055,24 @@
         <x:v>5701</x:v>
       </x:c>
       <x:c r="FG26" s="3" t="n">
-        <x:v>4757</x:v>
+        <x:v>4675</x:v>
       </x:c>
       <x:c r="FH26" s="3" t="n">
-        <x:v>4595</x:v>
+        <x:v>4517</x:v>
       </x:c>
       <x:c r="FI26" s="3" t="n">
-        <x:v>4575</x:v>
+        <x:v>4441</x:v>
       </x:c>
       <x:c r="FJ26" s="3" t="n">
-        <x:v>5280</x:v>
+        <x:v>5203</x:v>
+      </x:c>
+      <x:c r="FK26" s="3" t="n">
+        <x:v>4480</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:166">
+    <x:row r="27" spans="1:167">
       <x:c r="B27" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C27" s="3" t="n">
         <x:v>72</x:v>
@@ -13489,12 +13564,15 @@
         <x:v>1294</x:v>
       </x:c>
       <x:c r="FJ27" s="3" t="n">
-        <x:v>1494</x:v>
+        <x:v>1497</x:v>
+      </x:c>
+      <x:c r="FK27" s="3" t="n">
+        <x:v>1874</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:166">
+    <x:row r="28" spans="1:167">
       <x:c r="B28" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C28" s="3" t="n">
         <x:v>211</x:v>
@@ -13983,15 +14061,18 @@
         <x:v>484</x:v>
       </x:c>
       <x:c r="FI28" s="3" t="n">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="FJ28" s="3" t="n">
-        <x:v>578</x:v>
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="FK28" s="3" t="n">
+        <x:v>495</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:166">
+    <x:row r="29" spans="1:167">
       <x:c r="B29" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C29" s="3" t="n">
         <x:v>226</x:v>
@@ -14474,21 +14555,24 @@
         <x:v>4902</x:v>
       </x:c>
       <x:c r="FG29" s="3" t="n">
-        <x:v>4097</x:v>
+        <x:v>4341</x:v>
       </x:c>
       <x:c r="FH29" s="3" t="n">
-        <x:v>4125</x:v>
+        <x:v>4370</x:v>
       </x:c>
       <x:c r="FI29" s="3" t="n">
-        <x:v>4333</x:v>
+        <x:v>4577</x:v>
       </x:c>
       <x:c r="FJ29" s="3" t="n">
-        <x:v>5301</x:v>
+        <x:v>5485</x:v>
+      </x:c>
+      <x:c r="FK29" s="3" t="n">
+        <x:v>5754</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:166">
+    <x:row r="30" spans="1:167">
       <x:c r="B30" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C30" s="3" t="n">
         <x:v>38</x:v>
@@ -14974,18 +15058,21 @@
         <x:v>1489</x:v>
       </x:c>
       <x:c r="FH30" s="3" t="n">
-        <x:v>1440</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="FI30" s="3" t="n">
-        <x:v>1507</x:v>
+        <x:v>1505</x:v>
       </x:c>
       <x:c r="FJ30" s="3" t="n">
-        <x:v>1565</x:v>
+        <x:v>1563</x:v>
+      </x:c>
+      <x:c r="FK30" s="3" t="n">
+        <x:v>1369</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:166">
+    <x:row r="31" spans="1:167">
       <x:c r="B31" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C31" s="3" t="n">
         <x:v>37</x:v>
@@ -15468,21 +15555,24 @@
         <x:v>12412</x:v>
       </x:c>
       <x:c r="FG31" s="3" t="n">
-        <x:v>9324</x:v>
+        <x:v>9375</x:v>
       </x:c>
       <x:c r="FH31" s="3" t="n">
-        <x:v>9704</x:v>
+        <x:v>9756</x:v>
       </x:c>
       <x:c r="FI31" s="3" t="n">
-        <x:v>10168</x:v>
+        <x:v>10278</x:v>
       </x:c>
       <x:c r="FJ31" s="3" t="n">
-        <x:v>11201</x:v>
+        <x:v>11605</x:v>
+      </x:c>
+      <x:c r="FK31" s="3" t="n">
+        <x:v>12087</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:166">
+    <x:row r="32" spans="1:167">
       <x:c r="B32" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C32" s="3" t="n">
         <x:v>549</x:v>
@@ -15976,10 +16066,13 @@
       <x:c r="FJ32" s="3" t="n">
         <x:v>3543</x:v>
       </x:c>
+      <x:c r="FK32" s="3" t="n">
+        <x:v>3825</x:v>
+      </x:c>
     </x:row>
-    <x:row r="33" spans="1:166">
+    <x:row r="33" spans="1:167">
       <x:c r="B33" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C33" s="3" t="n">
         <x:v>7128</x:v>
@@ -16462,146 +16555,149 @@
         <x:v>86477</x:v>
       </x:c>
       <x:c r="FG33" s="3" t="n">
-        <x:v>72712</x:v>
+        <x:v>72657</x:v>
       </x:c>
       <x:c r="FH33" s="3" t="n">
-        <x:v>76740</x:v>
+        <x:v>77938</x:v>
       </x:c>
       <x:c r="FI33" s="3" t="n">
-        <x:v>91600</x:v>
+        <x:v>94573</x:v>
       </x:c>
       <x:c r="FJ33" s="3" t="n">
-        <x:v>107245</x:v>
+        <x:v>110877</x:v>
+      </x:c>
+      <x:c r="FK33" s="3" t="n">
+        <x:v>103533</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:166">
+    <x:row r="36" spans="1:167">
       <x:c r="A36" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:166">
+    <x:row r="37" spans="1:167">
       <x:c r="A37" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:166">
+    <x:row r="38" spans="1:167">
       <x:c r="A38" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:167">
+      <x:c r="A40" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:167">
+      <x:c r="A41" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:167">
+      <x:c r="A43" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:167">
+      <x:c r="A44" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:166">
-      <x:c r="A40" s="0" t="s">
-        <x:v>199</x:v>
+    <x:row r="45" spans="1:167">
+      <x:c r="A45" s="0" t="s">
+        <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:166">
-      <x:c r="A41" s="0" t="s">
-        <x:v>200</x:v>
+    <x:row r="46" spans="1:167">
+      <x:c r="A46" s="0" t="s">
+        <x:v>204</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:166">
-      <x:c r="A43" s="0" t="s">
-        <x:v>201</x:v>
+    <x:row r="47" spans="1:167">
+      <x:c r="A47" s="0" t="s">
+        <x:v>205</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:166">
-      <x:c r="A44" s="0" t="s">
-        <x:v>197</x:v>
+    <x:row r="51" spans="1:167">
+      <x:c r="A51" s="0" t="s">
+        <x:v>206</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:166">
-      <x:c r="A45" s="0" t="s">
-        <x:v>202</x:v>
+    <x:row r="53" spans="1:167">
+      <x:c r="A53" s="0" t="s">
+        <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:166">
-      <x:c r="A46" s="0" t="s">
-        <x:v>203</x:v>
+    <x:row r="54" spans="1:167">
+      <x:c r="A54" s="0" t="s">
+        <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:166">
-      <x:c r="A47" s="0" t="s">
-        <x:v>204</x:v>
+    <x:row r="55" spans="1:167">
+      <x:c r="A55" s="0" t="s">
+        <x:v>208</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:166">
-      <x:c r="A51" s="0" t="s">
-        <x:v>205</x:v>
+    <x:row r="56" spans="1:167">
+      <x:c r="A56" s="0" t="s">
+        <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:166">
-      <x:c r="A53" s="0" t="s">
-        <x:v>206</x:v>
+    <x:row r="57" spans="1:167">
+      <x:c r="A57" s="0" t="s">
+        <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:166">
-      <x:c r="A54" s="0" t="s">
-        <x:v>197</x:v>
+    <x:row r="58" spans="1:167">
+      <x:c r="A58" s="0" t="s">
+        <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:166">
-      <x:c r="A55" s="0" t="s">
-        <x:v>207</x:v>
+    <x:row r="60" spans="1:167">
+      <x:c r="A60" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:166">
-      <x:c r="A56" s="0" t="s">
-        <x:v>208</x:v>
+    <x:row r="61" spans="1:167">
+      <x:c r="A61" s="0" t="s">
+        <x:v>166</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:166">
-      <x:c r="A57" s="0" t="s">
-        <x:v>197</x:v>
+    <x:row r="62" spans="1:167">
+      <x:c r="A62" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:166">
-      <x:c r="A58" s="0" t="s">
-        <x:v>209</x:v>
+    <x:row r="65" spans="1:167">
+      <x:c r="A65" s="0" t="s">
+        <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:166">
-      <x:c r="A60" s="0" t="s">
-        <x:v>210</x:v>
+    <x:row r="66" spans="1:167">
+      <x:c r="A66" s="0" t="s">
+        <x:v>213</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:166">
-      <x:c r="A61" s="0" t="s">
-        <x:v>165</x:v>
+    <x:row r="71" spans="1:167">
+      <x:c r="A71" s="0" t="s">
+        <x:v>214</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:166">
-      <x:c r="A62" s="0" t="s">
-        <x:v>211</x:v>
+    <x:row r="72" spans="1:167">
+      <x:c r="A72" s="0" t="s">
+        <x:v>215</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:166">
-      <x:c r="A65" s="0" t="s">
-        <x:v>197</x:v>
+    <x:row r="74" spans="1:167">
+      <x:c r="A74" s="0" t="s">
+        <x:v>216</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:166">
-      <x:c r="A66" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:166">
-      <x:c r="A71" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:166">
-      <x:c r="A72" s="0" t="s">
-        <x:v>214</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:166">
-      <x:c r="A74" s="0" t="s">
-        <x:v>215</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:166">
+    <x:row r="75" spans="1:167">
       <x:c r="A75" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
